--- a/data/IRMS/peak_map.xlsx
+++ b/data/IRMS/peak_map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tristan/active_repos/tristan_d2o/data/IRMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10ADAB74-E5B2-AC4C-A783-8DD40E065C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F5ED59-1AFF-AA41-8319-580ECF4CC783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{42725BC7-9775-E54E-AA2D-819F4CD6C3D8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15540" xr2:uid="{42725BC7-9775-E54E-AA2D-819F4CD6C3D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,6 @@
     <t>17:0 cyclo</t>
   </si>
   <si>
-    <t>18:2 trans 9,12</t>
-  </si>
-  <si>
     <t>18:1 trans 9</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>rt:BF10901</t>
+  </si>
+  <si>
+    <t>18:2 9,12</t>
   </si>
 </sst>
 </file>
@@ -458,7 +458,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -477,7 +477,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -594,7 +594,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>2480.62</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>2505.2800000000002</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>2528.27</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>2575.3000000000002</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>2628.38</v>
@@ -664,7 +664,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>3058.92</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>3299.48</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>3513.92</v>
@@ -706,7 +706,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>3729.61</v>
@@ -720,7 +720,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>3794.81</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>3936.72</v>
